--- a/biology/Botanique/Jurinea/Jurinea.xlsx
+++ b/biology/Botanique/Jurinea/Jurinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jurinea est un genre de plantes à fleurs de la famille des Astéracées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacée touffues. Elles sont dépourvues d'épines et ont souvent un port acaulescent. La forme biologique de la plupart des espèces (du moins pour les espèces européennes) est l'hémicryptophyte.
 Les feuilles sont à la fois basales et forment une rosette et une tige. Les formes varient de la pinnatosette aux oblancéolés-spatulés et aux linéaires-lancéolés). Les feuilles non divisées ont des bords entiers à dentés. La feuille inférieure est pubescente (laineuse ou tomenteuse), la supérieure est blanc-vert. Le rachis peut être ailé.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La répartition des espèces de ce genre est eurasienne, en dehors des tropiques.
 </t>
@@ -577,7 +593,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Jurinea comprend 227 espèces.
 A
